--- a/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -755,21 +755,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -808,11 +808,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -933,12 +933,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -976,22 +976,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1140,12 +1140,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1232,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1285,21 +1285,21 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1391,11 +1391,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1473,17 +1473,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1497,21 +1497,21 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1550,21 +1550,21 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1656,21 +1656,21 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1718,22 +1718,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1771,22 +1771,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1815,11 +1815,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1854,12 +1854,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1877,17 +1877,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1921,11 +1921,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2027,7 +2027,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2133,21 +2133,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2225,12 +2225,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2239,11 +2239,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2292,11 +2292,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2345,11 +2345,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2407,12 +2407,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2451,7 +2451,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2460,22 +2460,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2513,12 +2513,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2557,7 +2557,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2610,7 +2610,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2672,12 +2672,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2716,11 +2716,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2822,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2875,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2981,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3087,16 +3087,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3140,26 +3140,26 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3299,7 +3299,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3352,7 +3352,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3405,11 +3405,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3472,12 +3472,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3511,7 +3511,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3564,7 +3564,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3636,17 +3636,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3670,7 +3670,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3679,12 +3679,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3723,7 +3723,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3732,17 +3732,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3776,26 +3776,26 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3838,12 +3838,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3882,11 +3882,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3988,11 +3988,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -4065,12 +4065,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4094,7 +4094,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -4113,12 +4113,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4147,11 +4147,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -4209,27 +4209,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4253,7 +4253,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4306,7 +4306,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4359,36 +4359,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4465,7 +4465,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -4518,26 +4518,26 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -4624,11 +4624,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4706,12 +4706,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4783,16 +4783,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4850,27 +4850,27 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4889,7 +4889,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4942,7 +4942,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5048,7 +5048,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5072,12 +5072,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5101,7 +5101,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -5183,12 +5183,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5207,16 +5207,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5226,17 +5226,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5260,26 +5260,26 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -5322,17 +5322,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -5366,7 +5366,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -5419,11 +5419,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5448,12 +5448,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5472,31 +5472,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5525,31 +5525,31 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5592,17 +5592,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5631,7 +5631,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5684,11 +5684,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5698,17 +5698,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -5737,11 +5737,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5751,12 +5751,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5799,12 +5799,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5843,11 +5843,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -5896,21 +5896,21 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6002,16 +6002,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6108,7 +6108,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6161,16 +6161,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6267,7 +6267,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -6276,17 +6276,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -6320,7 +6320,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6373,49 +6373,4554 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>147</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>148</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>149</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>150</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>151</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>152</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>153</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>154</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>156</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>158</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>159</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>160</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>161</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>162</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>163</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>164</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>165</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>166</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>167</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>168</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>169</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>170</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>171</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>172</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>173</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>174</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>175</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>176</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>177</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>178</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>179</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>180</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>181</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>182</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>183</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>184</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>185</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>186</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>187</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>188</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>189</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>190</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>196</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>197</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>198</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>199</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>200</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>204</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>205</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>206</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>208</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>209</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>210</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>211</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>212</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>213</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>214</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>217</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>218</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>219</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>220</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>221</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>222</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>223</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>224</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>225</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>226</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>227</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>228</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>229</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>230</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>231</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>233</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>235</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>237</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>238</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>239</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>240</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>243</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>244</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>246</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>247</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>248</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>249</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>251</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>252</v>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>2B</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K198"/>
+  <dimension ref="A1:K216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1232,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1338,7 +1338,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1444,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1468,17 +1468,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1497,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1550,11 +1550,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1603,11 +1603,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1709,7 +1709,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1771,22 +1771,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1815,11 +1815,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1829,17 +1829,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1849,17 +1849,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1868,11 +1868,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1882,12 +1882,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1921,16 +1921,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1974,16 +1974,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2133,11 +2133,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2186,16 +2186,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2220,17 +2220,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2248,17 +2248,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2292,7 +2292,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2345,7 +2345,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2407,12 +2407,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2451,21 +2451,21 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2504,21 +2504,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2610,7 +2610,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2663,11 +2663,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2725,22 +2725,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2875,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2928,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3034,7 +3034,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3087,21 +3087,21 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3140,11 +3140,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3207,12 +3207,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3246,11 +3246,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3260,17 +3260,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3352,16 +3352,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3405,26 +3405,26 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3458,11 +3458,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3472,12 +3472,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3564,16 +3564,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3583,12 +3583,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3626,12 +3626,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3670,7 +3670,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3679,12 +3679,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3723,11 +3723,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3776,11 +3776,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3838,12 +3838,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3882,7 +3882,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -3935,26 +3935,26 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3988,11 +3988,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4007,12 +4007,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4041,11 +4041,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4094,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4147,7 +4147,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4200,41 +4200,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4253,11 +4253,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -4320,12 +4320,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4359,7 +4359,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4412,26 +4412,26 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4465,11 +4465,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4518,26 +4518,26 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4585,17 +4585,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4730,11 +4730,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4792,17 +4792,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4836,7 +4836,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4850,17 +4850,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -4889,11 +4889,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5014,12 +5014,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5048,7 +5048,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -5062,17 +5062,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -5216,27 +5216,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5260,11 +5260,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5366,7 +5366,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -5380,12 +5380,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5419,7 +5419,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5448,12 +5448,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5472,7 +5472,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5525,11 +5525,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5539,17 +5539,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5578,16 +5578,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5640,12 +5640,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5684,11 +5684,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5751,12 +5751,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5790,7 +5790,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5809,12 +5809,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5843,26 +5843,26 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5915,12 +5915,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5958,12 +5958,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6002,26 +6002,26 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6031,12 +6031,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -6064,12 +6064,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -6108,11 +6108,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6195,12 +6195,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6214,21 +6214,21 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6267,11 +6267,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6320,7 +6320,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -6334,17 +6334,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6373,16 +6373,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -6426,11 +6426,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -6532,11 +6532,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -6546,17 +6546,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6638,11 +6638,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6691,11 +6691,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6705,17 +6705,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6778,12 +6778,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -6797,11 +6797,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6850,7 +6850,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6874,17 +6874,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6903,7 +6903,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6956,21 +6956,21 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -7062,11 +7062,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7115,16 +7115,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7168,11 +7168,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -7230,17 +7230,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7274,11 +7274,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -7288,12 +7288,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7327,11 +7327,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -7341,12 +7341,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7380,31 +7380,31 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7433,26 +7433,26 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7486,11 +7486,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7510,12 +7510,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -7553,12 +7553,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7592,16 +7592,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7645,26 +7645,26 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7698,31 +7698,31 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7751,31 +7751,31 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -7857,11 +7857,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -7871,17 +7871,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -7919,12 +7919,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -7963,7 +7963,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7982,12 +7982,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -8016,16 +8016,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8069,11 +8069,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8122,16 +8122,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -8184,17 +8184,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -8228,16 +8228,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8257,12 +8257,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -8290,12 +8290,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8334,26 +8334,26 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8387,26 +8387,26 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8440,7 +8440,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -8464,12 +8464,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8493,11 +8493,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -8507,17 +8507,17 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8546,7 +8546,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8585,12 +8585,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8599,7 +8599,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8652,16 +8652,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8671,12 +8671,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8705,16 +8705,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -8734,12 +8734,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8758,16 +8758,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8777,12 +8777,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8864,7 +8864,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8917,16 +8917,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -8979,17 +8979,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -9023,7 +9023,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -9076,7 +9076,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -9129,16 +9129,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9182,31 +9182,31 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -9235,31 +9235,31 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -9288,11 +9288,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -9307,12 +9307,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -9341,16 +9341,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9360,12 +9360,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9394,7 +9394,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9447,7 +9447,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -9456,12 +9456,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -9500,21 +9500,21 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9606,11 +9606,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9659,7 +9659,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -9712,11 +9712,11 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -9726,12 +9726,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -9741,12 +9741,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9765,11 +9765,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -9832,12 +9832,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -9871,7 +9871,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9890,12 +9890,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9924,11 +9924,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -9958,17 +9958,17 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -9991,12 +9991,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -10030,11 +10030,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10083,7 +10083,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10136,7 +10136,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10170,7 +10170,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10189,7 +10189,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10218,17 +10218,17 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -10242,11 +10242,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10295,7 +10295,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -10309,17 +10309,17 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10348,16 +10348,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10401,16 +10401,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10445,7 +10445,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -10454,16 +10454,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -10507,7 +10507,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10560,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10584,12 +10584,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -10627,12 +10627,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10666,26 +10666,26 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10719,16 +10719,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -10781,12 +10781,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -10811,12 +10811,12 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10825,16 +10825,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10878,49 +10878,1003 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>229</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>230</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>231</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>233</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>235</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>237</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>238</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>239</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>240</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>241</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>243</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>244</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>246</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>247</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>248</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>249</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>250</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>251</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
         <v>252</v>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>2B</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K216"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1135,22 +1135,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1232,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1285,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1468,12 +1468,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1497,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1550,7 +1550,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1603,11 +1603,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1656,11 +1656,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1762,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1824,22 +1824,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1868,11 +1868,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1902,17 +1902,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1921,11 +1921,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1974,16 +1974,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2027,11 +2027,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2089,12 +2089,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2133,7 +2133,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2186,16 +2186,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2239,11 +2239,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2253,17 +2253,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2292,31 +2292,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2345,11 +2345,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2451,21 +2451,21 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2504,21 +2504,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2619,12 +2619,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2663,21 +2663,21 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2716,11 +2716,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2778,22 +2778,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2884,12 +2884,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2990,17 +2990,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3034,7 +3034,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3048,12 +3048,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3087,7 +3087,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3140,11 +3140,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3193,21 +3193,21 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3265,12 +3265,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3299,7 +3299,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3352,21 +3352,21 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3405,16 +3405,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3424,12 +3424,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3458,16 +3458,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3511,11 +3511,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3525,12 +3525,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3564,16 +3564,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3617,11 +3617,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3723,26 +3723,26 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3776,11 +3776,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3935,11 +3935,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -3988,11 +3988,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4147,7 +4147,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -4166,12 +4166,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4200,11 +4200,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4253,21 +4253,21 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4306,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4359,11 +4359,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4373,17 +4373,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4421,22 +4421,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4465,31 +4465,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4518,7 +4518,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4571,11 +4571,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4585,17 +4585,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4677,7 +4677,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4730,11 +4730,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4792,17 +4792,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4836,11 +4836,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4889,11 +4889,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -4942,11 +4942,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -5004,17 +5004,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -5057,17 +5057,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5207,7 +5207,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5260,11 +5260,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5313,16 +5313,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5419,7 +5419,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -5428,17 +5428,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5472,7 +5472,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -5481,12 +5481,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5525,7 +5525,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5578,7 +5578,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5587,17 +5587,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5631,7 +5631,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5684,7 +5684,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5737,7 +5737,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5761,17 +5761,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5790,7 +5790,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5799,27 +5799,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5843,7 +5843,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5958,17 +5958,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6002,7 +6002,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6055,7 +6055,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -6079,17 +6079,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6108,11 +6108,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6214,21 +6214,21 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6267,21 +6267,21 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6320,11 +6320,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6426,11 +6426,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -6479,11 +6479,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -6585,11 +6585,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6638,11 +6638,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6744,11 +6744,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6783,12 +6783,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6831,12 +6831,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6850,11 +6850,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6956,21 +6956,21 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7009,21 +7009,21 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -7115,16 +7115,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7134,12 +7134,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -7177,22 +7177,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7221,7 +7221,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7274,7 +7274,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -7283,12 +7283,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7298,12 +7298,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7327,7 +7327,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7380,7 +7380,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7433,16 +7433,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -7510,17 +7510,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7539,7 +7539,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7563,12 +7563,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7592,7 +7592,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7645,7 +7645,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7698,16 +7698,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7751,11 +7751,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7857,11 +7857,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -7910,11 +7910,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7934,12 +7934,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8016,7 +8016,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -8069,16 +8069,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8122,7 +8122,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -8175,16 +8175,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8228,11 +8228,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -8242,12 +8242,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -8290,17 +8290,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -8334,16 +8334,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8387,11 +8387,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8440,41 +8440,41 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -8507,12 +8507,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8546,7 +8546,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -8555,17 +8555,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -8652,16 +8652,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8705,11 +8705,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8758,7 +8758,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8811,7 +8811,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -8820,17 +8820,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8864,7 +8864,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8917,16 +8917,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -9023,11 +9023,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -9129,11 +9129,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9182,11 +9182,11 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9341,11 +9341,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -9394,7 +9394,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -9423,12 +9423,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9447,11 +9447,11 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9500,11 +9500,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -9534,7 +9534,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -9553,11 +9553,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -9567,17 +9567,17 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9606,16 +9606,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -9659,7 +9659,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9712,26 +9712,26 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9765,11 +9765,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -9779,17 +9779,17 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9871,7 +9871,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -9924,11 +9924,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10030,7 +10030,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10083,16 +10083,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10136,7 +10136,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10242,11 +10242,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -10256,17 +10256,17 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10295,16 +10295,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -10401,11 +10401,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -10445,7 +10445,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10454,7 +10454,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -10507,21 +10507,21 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -10560,7 +10560,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10589,12 +10589,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10613,11 +10613,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -10642,12 +10642,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10666,11 +10666,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -10680,12 +10680,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -10728,22 +10728,22 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -10781,12 +10781,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -10811,12 +10811,12 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -10825,11 +10825,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10864,12 +10864,12 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10878,26 +10878,26 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10984,7 +10984,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11037,7 +11037,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -11090,7 +11090,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -11099,17 +11099,17 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -11143,7 +11143,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -11152,17 +11152,17 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -11196,26 +11196,26 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -11302,11 +11302,11 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -11389,12 +11389,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -11408,7 +11408,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -11442,12 +11442,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -11461,7 +11461,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -11514,31 +11514,31 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -11567,7 +11567,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -11576,17 +11576,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -11620,16 +11620,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -11664,7 +11664,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -11673,16 +11673,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -11726,7 +11726,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -11735,22 +11735,22 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -11760,7 +11760,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11770,7 +11770,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -11779,7 +11779,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -11788,22 +11788,22 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -11832,49 +11832,102 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>251</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
         <v>252</v>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>2B</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K217"/>
+  <dimension ref="A1:K222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2027,11 +2027,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2080,11 +2080,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2142,12 +2142,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2186,7 +2186,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2239,16 +2239,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2292,11 +2292,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2398,7 +2398,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2407,22 +2407,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2451,11 +2451,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2504,21 +2504,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2610,11 +2610,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2716,11 +2716,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2778,22 +2778,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2822,21 +2822,21 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2928,7 +2928,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2990,12 +2990,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3034,7 +3034,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3043,22 +3043,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3154,12 +3154,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3193,11 +3193,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3255,17 +3255,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3299,11 +3299,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3313,17 +3313,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3361,17 +3361,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3405,16 +3405,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3472,12 +3472,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3511,7 +3511,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3530,12 +3530,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3564,7 +3564,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3573,17 +3573,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3617,7 +3617,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3626,12 +3626,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3670,7 +3670,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3679,17 +3679,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3723,11 +3723,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3776,26 +3776,26 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3838,17 +3838,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3882,11 +3882,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3988,11 +3988,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -4060,12 +4060,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -4094,11 +4094,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4200,7 +4200,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4253,11 +4253,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4272,12 +4272,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -4315,12 +4315,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4359,7 +4359,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -4373,12 +4373,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4412,7 +4412,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4465,16 +4465,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4518,16 +4518,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4571,11 +4571,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4677,11 +4677,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4730,26 +4730,26 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -4783,16 +4783,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4836,11 +4836,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4889,7 +4889,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4898,17 +4898,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4951,17 +4951,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4995,11 +4995,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -5057,17 +5057,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5101,11 +5101,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -5269,22 +5269,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5313,31 +5313,31 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -5385,12 +5385,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5472,11 +5472,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5578,7 +5578,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5737,7 +5737,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5751,12 +5751,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5790,7 +5790,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5843,7 +5843,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5896,7 +5896,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5905,17 +5905,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5949,7 +5949,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5958,27 +5958,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6002,7 +6002,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -6011,17 +6011,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -6055,7 +6055,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -6064,17 +6064,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -6108,7 +6108,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -6117,22 +6117,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6161,11 +6161,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6214,11 +6214,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -6238,12 +6238,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -6276,12 +6276,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6320,11 +6320,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -6373,26 +6373,26 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6426,11 +6426,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6532,7 +6532,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6585,21 +6585,21 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6638,16 +6638,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -6744,11 +6744,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6797,11 +6797,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -6850,21 +6850,21 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -6903,26 +6903,26 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6965,12 +6965,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7009,16 +7009,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7062,11 +7062,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7101,12 +7101,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7115,11 +7115,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7168,16 +7168,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7187,12 +7187,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7221,11 +7221,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -7303,12 +7303,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7327,11 +7327,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -7380,11 +7380,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -7452,12 +7452,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7486,11 +7486,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7539,31 +7539,31 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7592,16 +7592,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7611,12 +7611,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7645,11 +7645,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7698,11 +7698,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -7751,11 +7751,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7833,12 +7833,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7910,11 +7910,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7972,12 +7972,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7987,12 +7987,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8016,11 +8016,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -8030,12 +8030,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -8083,12 +8083,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8122,31 +8122,31 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -8228,7 +8228,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8247,22 +8247,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8281,31 +8281,31 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8334,11 +8334,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -8387,11 +8387,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8440,7 +8440,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8493,7 +8493,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -8502,32 +8502,32 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8546,31 +8546,31 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8599,31 +8599,31 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8633,17 +8633,17 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8705,7 +8705,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8758,7 +8758,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -8767,17 +8767,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8811,7 +8811,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8864,7 +8864,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -8917,7 +8917,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8970,7 +8970,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -9023,31 +9023,31 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -9085,17 +9085,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -9129,7 +9129,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9235,16 +9235,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9254,12 +9254,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9288,11 +9288,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9394,11 +9394,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -9408,7 +9408,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -9418,17 +9418,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -9447,7 +9447,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9500,7 +9500,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -9553,11 +9553,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -9606,11 +9606,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -9620,17 +9620,17 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -9659,21 +9659,21 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9683,17 +9683,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9703,7 +9703,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9712,11 +9712,11 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9765,16 +9765,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -9818,21 +9818,21 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9862,7 +9862,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -9871,16 +9871,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -9924,7 +9924,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -9977,26 +9977,26 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10030,7 +10030,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10083,31 +10083,31 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10136,7 +10136,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -10150,12 +10150,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -10170,7 +10170,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10189,7 +10189,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10242,16 +10242,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10295,7 +10295,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -10304,22 +10304,22 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10348,31 +10348,31 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -10415,12 +10415,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -10454,11 +10454,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -10468,12 +10468,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10507,16 +10507,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10560,11 +10560,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -10637,17 +10637,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10666,11 +10666,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10719,11 +10719,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -10733,12 +10733,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -10772,21 +10772,21 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -10806,7 +10806,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -10825,7 +10825,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -10834,12 +10834,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -10878,11 +10878,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -10931,26 +10931,26 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -10984,7 +10984,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11037,7 +11037,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -11051,17 +11051,17 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -11090,7 +11090,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -11143,16 +11143,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11249,11 +11249,11 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -11263,12 +11263,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -11302,11 +11302,11 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -11316,17 +11316,17 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11374,12 +11374,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -11442,17 +11442,17 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -11461,7 +11461,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -11470,22 +11470,22 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -11505,7 +11505,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -11514,11 +11514,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -11567,7 +11567,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -11576,22 +11576,22 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -11620,11 +11620,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -11664,7 +11664,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -11673,16 +11673,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11707,17 +11707,17 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -11726,7 +11726,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -11788,22 +11788,22 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11823,7 +11823,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -11832,31 +11832,31 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -11885,49 +11885,314 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>247</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>248</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>249</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>250</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>251</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
         <v>252</v>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>2B</t>
         </is>

--- a/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
@@ -3767,7 +3767,7 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -3788,7 +3788,7 @@
         <v>10</v>
       </c>
       <c r="J105" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4326,7 +4326,7 @@
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I122" t="s">
         <v>10</v>
@@ -7872,7 +7872,7 @@
         <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G233" t="s">
         <v>16</v>
@@ -7884,7 +7884,7 @@
         <v>10</v>
       </c>
       <c r="J233" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -8355,7 +8355,7 @@
         <v>14</v>
       </c>
       <c r="G248" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H248" t="s">
         <v>12</v>

--- a/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
@@ -1318,7 +1318,7 @@
         <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1492,16 +1492,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2054,7 +2054,7 @@
         <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
         <v>10</v>
@@ -6723,7 +6723,7 @@
         <v>10</v>
       </c>
       <c r="G197" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H197" t="s">
         <v>12</v>
@@ -6732,7 +6732,7 @@
         <v>10</v>
       </c>
       <c r="J197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7715,16 +7715,16 @@
         <v>10</v>
       </c>
       <c r="G228" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H228" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I228" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J228" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:10">
